--- a/Unity Project/Assets/Resources/Data/Monster/MonsterDataExcel.xlsx
+++ b/Unity Project/Assets/Resources/Data/Monster/MonsterDataExcel.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\Monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378F1C02-3F73-4046-B670-6193599D2098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACBA720-408E-4625-B15C-34FA77F62745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C251CD2-84BD-40AF-999B-0722BAA5CB8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1C251CD2-84BD-40AF-999B-0722BAA5CB8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Type" sheetId="1" r:id="rId1"/>
-    <sheet name="Status" sheetId="2" r:id="rId2"/>
+    <sheet name="Default_Status" sheetId="2" r:id="rId2"/>
+    <sheet name="Easy_Status" sheetId="3" r:id="rId3"/>
+    <sheet name="Normal_Status" sheetId="4" r:id="rId4"/>
+    <sheet name="Hard_Status" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C21485E-D85C-4740-816B-B97B2E563B7E}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -855,4 +858,475 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1F332-C332-4F89-A184-1A5513F21BED}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29ED7495-8D7D-45FA-AD74-F777F2932304}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.25</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.25</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.25</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F56026-6AEF-42C5-B679-9E093AAB7AE4}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1.5</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>